--- a/_resource/excel/R-任务-任务配置-(框架定义,策划填写).xlsx
+++ b/_resource/excel/R-任务-任务配置-(框架定义,策划填写).xlsx
@@ -186,69 +186,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>PCC:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-drop  输出掉落 参数1=默认掉落id  参数2=累计计数的条件id 参数3=额外的掉落( 10:100|20:200 )
-data  直接添加属性 参数1=属性名 参数2=属性数值  参数3=属性key( 如果有id的话 ) 如: data item 1-2 100001
-taskstatus 更新任务状态 参数1=任务id  参数2=任务状态(0删除任务 1激活任务 2接取状态 3完成状态)
-taskcondition 更新任务条件(只对正在进行的任务有效) 参数1=任务id 参数2=条件id 参数3=操作类型(1=添加 2=减少 3=设置 ) 参数4=要操作的条件数值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>execute</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> 需要掉落多个不同类型的内容时，用此字段打包掉落内容，服务端下发掉落后，由客户端根据提示队列进行排序。配置表</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>R-任务-任务执行队列-taskexecute</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>完成条件</t>
   </si>
@@ -286,21 +229,6 @@
     <t>前置条件</t>
   </si>
   <si>
-    <t>执行输出名</t>
-  </si>
-  <si>
-    <t>输出参数1</t>
-  </si>
-  <si>
-    <t>输出参数2</t>
-  </si>
-  <si>
-    <t>输出参数3</t>
-  </si>
-  <si>
-    <t>输出参数4</t>
-  </si>
-  <si>
     <t>任务名称</t>
   </si>
   <si>
@@ -319,31 +247,24 @@
     <t>PreCondition(string)</t>
   </si>
   <si>
-    <t>ExecuteName(string)</t>
-  </si>
-  <si>
-    <t>ExecuteParam1(string)</t>
-  </si>
-  <si>
-    <t>ExecuteParam2(string)</t>
-  </si>
-  <si>
-    <t>ExecuteParam3(string)</t>
-  </si>
-  <si>
-    <t>ExecuteParam4(string)</t>
-  </si>
-  <si>
     <t>TaskName(string)</t>
   </si>
   <si>
     <t>RewardDisplay(string)</t>
+  </si>
+  <si>
+    <t>任务输出</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execute(string)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -885,13 +806,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -901,14 +822,12 @@
     <col min="3" max="3" width="28.25" customWidth="1"/>
     <col min="4" max="4" width="29.375" customWidth="1"/>
     <col min="5" max="5" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -922,17 +841,13 @@
         <v>7</v>
       </c>
       <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="5"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -949,31 +864,19 @@
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>3</v>
       </c>
@@ -993,66 +896,42 @@
         <v>1</v>
       </c>
       <c r="G3" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="5">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5">
         <v>2</v>
       </c>
-      <c r="L3" s="5">
-        <v>2</v>
-      </c>
-      <c r="M3" s="5">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/_resource/excel/R-任务-任务配置-(框架定义,策划填写).xlsx
+++ b/_resource/excel/R-任务-任务配置-(框架定义,策划填写).xlsx
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="2" shapeId="0">
+    <comment ref="D4" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="2" shapeId="0">
+    <comment ref="E4" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="2" shapeId="0">
+    <comment ref="F4" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>完成条件</t>
   </si>
@@ -258,6 +258,14 @@
   </si>
   <si>
     <t>Execute(string)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality(int)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -806,28 +814,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="28.25" customWidth="1"/>
-    <col min="4" max="4" width="29.375" customWidth="1"/>
-    <col min="5" max="5" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="5" max="5" width="29.375" customWidth="1"/>
+    <col min="6" max="6" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -840,14 +848,14 @@
       <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="9"/>
+      <c r="F1" s="7"/>
       <c r="G1" s="9"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -855,28 +863,31 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>3</v>
       </c>
@@ -889,14 +900,14 @@
       <c r="D3" s="5">
         <v>3</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2</v>
       </c>
       <c r="H3" s="5">
         <v>2</v>
@@ -904,8 +915,11 @@
       <c r="I3" s="5">
         <v>2</v>
       </c>
+      <c r="J3" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -913,30 +927,33 @@
         <v>15</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C4">
+  <conditionalFormatting sqref="D2:D4">
     <cfRule type="duplicateValues" dxfId="3" priority="116" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A4">
